--- a/DataFiles/companyName.xlsx
+++ b/DataFiles/companyName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swathi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1775065-8DC3-4836-B440-D60DCE75190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCA8488-1624-4755-8423-D8BE70BB52BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{B8EE117B-76FA-4BE7-B3D0-C6085CA7EB46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{73922E61-1044-49BF-A414-F0A5D31D4340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>dell</t>
-  </si>
-  <si>
-    <t>de ll</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Open Text</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>OpenText</t>
+  </si>
+  <si>
+    <t>Tom &amp; Jerry</t>
+  </si>
+  <si>
+    <t>Strategy&amp;</t>
+  </si>
+  <si>
+    <t>OPENTEXT</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>Pendulam</t>
+  </si>
+  <si>
+    <t>DE ll</t>
   </si>
   <si>
     <t>DELL</t>
   </si>
   <si>
-    <t>dell's</t>
-  </si>
-  <si>
-    <t>dell international private limited</t>
-  </si>
-  <si>
-    <t>lowes india pvt limited</t>
-  </si>
-  <si>
-    <t>lowe's pvt limited</t>
+    <t>OpEnTeXt</t>
+  </si>
+  <si>
+    <t>OPENtext</t>
+  </si>
+  <si>
+    <t>opentex</t>
+  </si>
+  <si>
+    <t>Open source</t>
+  </si>
+  <si>
+    <t>Open door</t>
+  </si>
+  <si>
+    <t>Technical pen</t>
+  </si>
+  <si>
+    <t>pendulam</t>
+  </si>
+  <si>
+    <t>SK-II</t>
+  </si>
+  <si>
+    <t>one+</t>
   </si>
 </sst>
 </file>
@@ -408,41 +450,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E6E53D-5C16-48AB-9D6B-96E9701ED7A6}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EE4911-55FD-40BE-87AF-EC15C586F602}">
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -452,12 +494,87 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
